--- a/data/trans_media/Q23-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23-Estudios-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 16,08</t>
+          <t>15,57; 16,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,21</t>
+          <t>15,66; 16,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 19,86</t>
+          <t>17,87; 19,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,31</t>
+          <t>17,73; 19,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,9</t>
+          <t>16,25; 16,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 16,94</t>
+          <t>16,32; 16,93</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,68</t>
+          <t>16,28; 16,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 16,74</t>
+          <t>16,4; 16,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,17</t>
+          <t>16,69; 17,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,75</t>
+          <t>17,09; 17,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 16,79</t>
+          <t>16,49; 16,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,1</t>
+          <t>16,75; 17,11</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,65</t>
+          <t>16,88; 17,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,09</t>
+          <t>17,1; 18,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,88</t>
+          <t>17,53; 18,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,59</t>
+          <t>17,3; 18,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,98</t>
+          <t>17,25; 18,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,07</t>
+          <t>17,31; 18,11</t>
         </is>
       </c>
     </row>
@@ -879,22 +879,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,2; 16,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,62</t>
+          <t>16,32; 16,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,21; 17,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,4; 17,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,08</t>
+          <t>16,78; 17,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23-Estudios-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 16,1</t>
+          <t>15,6; 16,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 16,21</t>
+          <t>15,65; 16,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 19,77</t>
+          <t>17,89; 19,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,25</t>
+          <t>17,76; 19,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,9</t>
+          <t>16,26; 16,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,93</t>
+          <t>16,29; 16,9</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,66</t>
+          <t>16,27; 16,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 16,75</t>
+          <t>16,4; 16,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,16</t>
+          <t>16,66; 17,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,78</t>
+          <t>17,12; 17,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 16,8</t>
+          <t>16,49; 16,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,11</t>
+          <t>16,76; 17,11</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,68</t>
+          <t>16,9; 17,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,08</t>
+          <t>17,08; 18,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,98</t>
+          <t>17,51; 18,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 18,49</t>
+          <t>17,27; 18,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 18,0</t>
+          <t>17,28; 18,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,11</t>
+          <t>17,29; 18,04</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,49</t>
+          <t>16,2; 16,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,61</t>
+          <t>16,33; 16,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,78</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 17,96</t>
+          <t>17,4; 17,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
+          <t>16,63; 16,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,09</t>
+          <t>16,78; 17,07</t>
         </is>
       </c>
     </row>
